--- a/feature_preference/data/user_study/raw_data/0featpref.xlsx
+++ b/feature_preference/data/user_study/raw_data/0featpref.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andipeng/Dropbox (MIT)/Code/projects/feature-preference/feature_preference/data/user_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andipeng/Dropbox (MIT)/Code/projects/feature-preference/feature_preference/data/user_study/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D4B8E7-1CB9-6347-9610-8EB2F1B1EE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18375B4E-25FA-F04C-ADE0-2CF0087C3013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,9 +925,9 @@
   </sheetPr>
   <dimension ref="A1:BM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="BI12" sqref="BI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
